--- a/01-Class-Activities/Mon-Wed-Class/01-Excel/3/Activities/04-Par_Dartville/Unsolved/Dartville.xlsx
+++ b/01-Class-Activities/Mon-Wed-Class/01-Excel/3/Activities/04-Par_Dartville/Unsolved/Dartville.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98452\Documents\GitHub\GWU-ARL-DATA-PT-09-2019-U-C\01-Class-Activities\Mon-Wed-Class\01-Excel\3\Activities\04-Par_Dartville\Solved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98452\Documents\GitHub\GWU-ARL-DATA-PT-09-2019-U-C\01-Class-Activities\Mon-Wed-Class\01-Excel\3\Activities\04-Par_Dartville\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="294">
   <si>
     <t>Aaron</t>
   </si>
@@ -738,12 +738,6 @@
     <t>Primary Phone</t>
   </si>
   <si>
-    <t>Highlight the fierce people in RED</t>
-  </si>
-  <si>
-    <t>Name formatted as "[Last], [First] [Middle]", for example "Williams, Dartanion De Angelo"</t>
-  </si>
-  <si>
     <t>(991) 473-7167</t>
   </si>
   <si>
@@ -909,9 +903,6 @@
     <t>(991) 724-4433</t>
   </si>
   <si>
-    <t>Special exercise: create a full report</t>
-  </si>
-  <si>
     <t>Full Name</t>
   </si>
   <si>
@@ -925,12 +916,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Now I want to test your resourcefulness… figure out how to calculate age</t>
-  </si>
-  <si>
-    <t>Turn this into a formatted table</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1015,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1157,8 +1145,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1177,8 +1165,8 @@
   <autoFilter ref="A1:C56"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Student ID"/>
-    <tableColumn id="6" name="Birth Date" dataDxfId="6"/>
-    <tableColumn id="7" name="Gender" dataDxfId="5"/>
+    <tableColumn id="6" name="Birth Date" dataDxfId="7"/>
+    <tableColumn id="7" name="Gender" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,35 +1181,36 @@
     <tableColumn id="3" name="City"/>
     <tableColumn id="4" name="State"/>
     <tableColumn id="5" name="Zip"/>
-    <tableColumn id="6" name="Primary Phone" dataDxfId="4"/>
+    <tableColumn id="6" name="Primary Phone" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B56" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B56" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:B56"/>
   <sortState ref="A2:B56">
     <sortCondition ref="B1:B56"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Student ID" dataDxfId="1"/>
-    <tableColumn id="2" name="Diagnosis" dataDxfId="0"/>
+    <tableColumn id="1" name="Student ID" dataDxfId="2"/>
+    <tableColumn id="2" name="Diagnosis" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E60" totalsRowShown="0">
-  <autoFilter ref="A1:E60"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F60" totalsRowShown="0">
+  <autoFilter ref="A1:F60"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Student ID"/>
     <tableColumn id="8" name="Gender"/>
     <tableColumn id="2" name="Last Name"/>
     <tableColumn id="3" name="First Name"/>
     <tableColumn id="7" name="Middle Name"/>
+    <tableColumn id="4" name="Full Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1529,7 +1518,9 @@
   </sheetPr>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2156,8 +2147,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2221,7 +2213,7 @@
         <v>20078</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,7 +2233,7 @@
         <v>20076</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,7 +2253,7 @@
         <v>20070</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,7 +2273,7 @@
         <v>20076</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,7 +2293,7 @@
         <v>20076</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,7 +2313,7 @@
         <v>20073</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,7 +2333,7 @@
         <v>20072</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,7 +2353,7 @@
         <v>20074</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,7 +2373,7 @@
         <v>20075</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2401,7 +2393,7 @@
         <v>20075</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,7 +2413,7 @@
         <v>20073</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,7 +2433,7 @@
         <v>20071</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,7 +2453,7 @@
         <v>20070</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2473,7 @@
         <v>20070</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,7 +2493,7 @@
         <v>20077</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,7 +2513,7 @@
         <v>20078</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,7 +2533,7 @@
         <v>20076</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,7 +2553,7 @@
         <v>20079</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,7 +2573,7 @@
         <v>20076</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,7 +2593,7 @@
         <v>20074</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,7 +2613,7 @@
         <v>20074</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,7 +2633,7 @@
         <v>20074</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2661,7 +2653,7 @@
         <v>20079</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2681,7 +2673,7 @@
         <v>20079</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,7 +2693,7 @@
         <v>20072</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2721,7 +2713,7 @@
         <v>20074</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2741,7 +2733,7 @@
         <v>20077</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,7 +2753,7 @@
         <v>20070</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,7 +2773,7 @@
         <v>20078</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,7 +2793,7 @@
         <v>20077</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2821,7 +2813,7 @@
         <v>20076</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,7 +2833,7 @@
         <v>20070</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,7 +2853,7 @@
         <v>20078</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,7 +2873,7 @@
         <v>20072</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,7 +2893,7 @@
         <v>20074</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2921,7 +2913,7 @@
         <v>20075</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,7 +2933,7 @@
         <v>20079</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,7 +2953,7 @@
         <v>20078</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,7 +2973,7 @@
         <v>20073</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,7 +2993,7 @@
         <v>20073</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,7 +3013,7 @@
         <v>20071</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3041,7 +3033,7 @@
         <v>20075</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,7 +3053,7 @@
         <v>20071</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,7 +3073,7 @@
         <v>20079</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,7 +3093,7 @@
         <v>20071</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,7 +3113,7 @@
         <v>20074</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,7 +3133,7 @@
         <v>20074</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,7 +3153,7 @@
         <v>20070</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3181,7 +3173,7 @@
         <v>20078</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3201,7 +3193,7 @@
         <v>20077</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3221,7 +3213,7 @@
         <v>20075</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3241,7 +3233,7 @@
         <v>20071</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,7 +3253,7 @@
         <v>20073</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,7 +3273,7 @@
         <v>20075</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,7 +3293,7 @@
         <v>20073</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3782,7 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3803,7 +3795,7 @@
     <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -3819,8 +3811,11 @@
       <c r="E1" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>25012794</v>
       </c>
@@ -3837,7 +3832,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25018253</v>
       </c>
@@ -3854,7 +3849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25011190</v>
       </c>
@@ -3871,7 +3866,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25012819</v>
       </c>
@@ -3888,7 +3883,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25016539</v>
       </c>
@@ -3905,7 +3900,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25014751</v>
       </c>
@@ -3922,7 +3917,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25018014</v>
       </c>
@@ -3939,7 +3934,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25011994</v>
       </c>
@@ -3956,7 +3951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25013750</v>
       </c>
@@ -3973,7 +3968,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25011962</v>
       </c>
@@ -3990,7 +3985,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25007190</v>
       </c>
@@ -4007,7 +4002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25016020</v>
       </c>
@@ -4024,7 +4019,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25016460</v>
       </c>
@@ -4041,7 +4036,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25015674</v>
       </c>
@@ -4058,7 +4053,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25008738</v>
       </c>
@@ -4770,8 +4765,8 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L1:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,203 +4787,193 @@
         <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>291</v>
-      </c>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="L2" s="7" t="s">
-        <v>235</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="L3" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="L4" s="7" t="s">
-        <v>297</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="L5" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>

--- a/01-Class-Activities/Mon-Wed-Class/01-Excel/3/Activities/04-Par_Dartville/Unsolved/Dartville.xlsx
+++ b/01-Class-Activities/Mon-Wed-Class/01-Excel/3/Activities/04-Par_Dartville/Unsolved/Dartville.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16305" tabRatio="706" activeTab="4"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16305" tabRatio="706" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,26 @@
     <sheet name="Diagnosis" sheetId="5" r:id="rId3"/>
     <sheet name="Students" sheetId="4" r:id="rId4"/>
     <sheet name="Full Report" sheetId="6" r:id="rId5"/>
+    <sheet name="Student over 25" sheetId="8" r:id="rId6"/>
+    <sheet name="Pivot" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Address" localSheetId="5">Table15[]</definedName>
+    <definedName name="Address">Table15[]</definedName>
+    <definedName name="Demo" localSheetId="5">Table1[#All]</definedName>
+    <definedName name="Demo">Table1[#All]</definedName>
+    <definedName name="Diag" localSheetId="5">Table3[]</definedName>
+    <definedName name="Diag">Table3[]</definedName>
+    <definedName name="StudentList" localSheetId="5">Table2[]</definedName>
+    <definedName name="StudentList">Table2[]</definedName>
     <definedName name="Test" localSheetId="1">Students!#REF!</definedName>
+    <definedName name="Test" localSheetId="5">Students!#REF!</definedName>
     <definedName name="Test">Students!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="298">
   <si>
     <t>Aaron</t>
   </si>
@@ -916,6 +930,18 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of Student ID</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1011,11 +1037,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1145,8 +1284,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1160,57 +1299,865 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dartanion Williams" refreshedDate="43722.527374768521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="55">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table5"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Student ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25006634" maxValue="25019408"/>
+    </cacheField>
+    <cacheField name="Full Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Address" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="City, State Zip" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Phone Number" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Birth Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1991-05-31T00:00:00" maxDate="1998-05-12T00:00:00"/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="28" count="8">
+        <n v="23"/>
+        <n v="21"/>
+        <n v="27"/>
+        <n v="24"/>
+        <n v="22"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="28"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Diagnosis" numFmtId="0">
+      <sharedItems count="10">
+        <s v="The GOAT"/>
+        <s v="Super"/>
+        <s v="Amazing"/>
+        <s v="Phenomenal"/>
+        <s v="Wonderful"/>
+        <s v="Great"/>
+        <s v="Fierce"/>
+        <s v="Magnificent"/>
+        <s v="Fabulous"/>
+        <s v="Awesome"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
+  <r>
+    <n v="25012794"/>
+    <s v="Balcom, Brittany Emma"/>
+    <s v="3322 Balcom Avenue"/>
+    <s v="Dartville, DC 20077"/>
+    <s v="(991) 381-7853"/>
+    <d v="1996-07-31T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25018253"/>
+    <s v="Kent, Chandra Olivia"/>
+    <s v="323 Kent Drive"/>
+    <s v="Dartville, DC 20076"/>
+    <s v="(991) 586-7500"/>
+    <d v="1997-12-20T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25011190"/>
+    <s v="Mack, Demetria Ava"/>
+    <s v="2096 Mack Street"/>
+    <s v="Dartville, DC 20070"/>
+    <s v="(991) 415-9544"/>
+    <d v="1992-04-04T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25012819"/>
+    <s v="Luongo, Desiree Isabella"/>
+    <s v="656 Luongo Place"/>
+    <s v="Dartville, DC 20078"/>
+    <s v="(991) 700-4183"/>
+    <d v="1994-12-22T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25016539"/>
+    <s v="Light, Ericka Sophia"/>
+    <s v="2956 Light Avenue"/>
+    <s v="Dartville, DC 20073"/>
+    <s v="(991) 213-2443"/>
+    <d v="1996-05-15T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25014751"/>
+    <s v="Xu, Fangyi Charlotte"/>
+    <s v="3293 Xu Court"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 982-7384"/>
+    <d v="1997-03-18T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25018014"/>
+    <s v="Alomoge, Fatima Mia"/>
+    <s v="2605 Alomoge Street"/>
+    <s v="Dartville, DC 20075"/>
+    <s v="(991) 893-8997"/>
+    <d v="1992-05-18T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25011994"/>
+    <s v="Sundaresan, Gayatri Amelia"/>
+    <s v="1564 Sundaresan Avenue"/>
+    <s v="Dartville, DC 20079"/>
+    <s v="(991) 597-8026"/>
+    <d v="1996-10-02T00:00:00"/>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="25013750"/>
+    <s v="Javier, Janice Harper"/>
+    <s v="3208 Javier Drive"/>
+    <s v="Dartville, DC 20073"/>
+    <s v="(991) 264-3081"/>
+    <d v="1994-08-13T00:00:00"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="25011962"/>
+    <s v="Gwon, Jean Evelyn"/>
+    <s v="4546 Gwon Blvd"/>
+    <s v="Dartville, DC 20078"/>
+    <s v="(991) 748-1984"/>
+    <d v="1998-01-31T00:00:00"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25007190"/>
+    <s v="Gorska, Katarzyna Abigail"/>
+    <s v="3804 Gorska Avenue"/>
+    <s v="Dartville, DC 20079"/>
+    <s v="(991) 550-6111"/>
+    <d v="1996-07-12T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="25016020"/>
+    <s v="Carr, Keisha Emily"/>
+    <s v="4105 Carr Blvd"/>
+    <s v="Dartville, DC 20076"/>
+    <s v="(991) 450-9844"/>
+    <d v="1995-07-03T00:00:00"/>
+    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="25016460"/>
+    <s v="Wilson, Michelle Elizabeth"/>
+    <s v="2792 Wilson Avenue"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 546-6800"/>
+    <d v="1992-12-26T00:00:00"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25015674"/>
+    <s v="Ren, Qing Mila"/>
+    <s v="771 Ren Place"/>
+    <s v="Dartville, DC 20079"/>
+    <s v="(991) 855-8115"/>
+    <d v="1998-03-16T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25008738"/>
+    <s v="Tiwari, Rina Ella"/>
+    <s v="4455 Tiwari Avenue"/>
+    <s v="Dartville, DC 20071"/>
+    <s v="(991) 584-4352"/>
+    <d v="1996-03-04T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25017285"/>
+    <s v="Jain, Sumita Avery"/>
+    <s v="1326 Jain Blvd"/>
+    <s v="Dartville, DC 20078"/>
+    <s v="(991) 780-8539"/>
+    <d v="1992-11-03T00:00:00"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25011891"/>
+    <s v="Rangat, Tara Sofia"/>
+    <s v="962 Rangat Drive"/>
+    <s v="Dartville, DC 20077"/>
+    <s v="(991) 636-5688"/>
+    <d v="1992-07-15T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25008833"/>
+    <s v="Isaacson, Aaron Liam"/>
+    <s v="3179 Isaacson Place"/>
+    <s v="Dartville, DC 20078"/>
+    <s v="(991) 473-7167"/>
+    <d v="1997-04-02T00:00:00"/>
+    <x v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="25015731"/>
+    <s v="Black, Alex Noah"/>
+    <s v="1735 Black Avenue"/>
+    <s v="Dartville, DC 20076"/>
+    <s v="(991) 653-9879"/>
+    <d v="1996-09-10T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25017242"/>
+    <s v="Ebanks, Andre William"/>
+    <s v="1077 Ebanks Avenue"/>
+    <s v="Dartville, DC 20078"/>
+    <s v="(991) 262-7832"/>
+    <d v="1998-01-05T00:00:00"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25010582"/>
+    <s v="Schneider, Brett James"/>
+    <s v="105 Schneider Street"/>
+    <s v="Dartville, DC 20070"/>
+    <s v="(991) 941-1852"/>
+    <d v="1991-06-17T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25010276"/>
+    <s v="Ventura, David Oliver"/>
+    <s v="4698 Ventura Place"/>
+    <s v="Dartville, DC 20076"/>
+    <s v="(991) 631-1491"/>
+    <d v="1996-11-21T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25019408"/>
+    <s v="Thompson, Edwin Benjamin"/>
+    <s v="957 Thompson Blvd"/>
+    <s v="Dartville, DC 20076"/>
+    <s v="(991) 952-5337"/>
+    <d v="1992-08-26T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25018061"/>
+    <s v="Selimaj, Elvis Elijah"/>
+    <s v="3147 Selimaj Street"/>
+    <s v="Dartville, DC 20072"/>
+    <s v="(991) 889-8098"/>
+    <d v="1995-11-11T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="25016675"/>
+    <s v="Tate, Hannah Lucas"/>
+    <s v="2916 Tate Street"/>
+    <s v="Dartville, DC 20072"/>
+    <s v="(991) 801-1140"/>
+    <d v="1994-10-28T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25017367"/>
+    <s v="Lodhi, Hussain Mason"/>
+    <s v="943 Lodhi Court"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 257-5982"/>
+    <d v="1993-02-19T00:00:00"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25014193"/>
+    <s v="Khalil, Hythem Logan"/>
+    <s v="4703 Khalil Blvd"/>
+    <s v="Dartville, DC 20075"/>
+    <s v="(991) 572-6278"/>
+    <d v="1998-05-11T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25010928"/>
+    <s v="Woltman, Jack Alexander"/>
+    <s v="2325 Woltman Drive"/>
+    <s v="Dartville, DC 20075"/>
+    <s v="(991) 659-7287"/>
+    <d v="1995-07-06T00:00:00"/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="25007608"/>
+    <s v="Torczon, Jethro Ethan"/>
+    <s v="1092 Torczon Court"/>
+    <s v="Dartville, DC 20073"/>
+    <s v="(991) 640-2521"/>
+    <d v="1997-08-23T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25018702"/>
+    <s v="Najmi, Johar Jacob"/>
+    <s v="4852 Najmi Court"/>
+    <s v="Dartville, DC 20071"/>
+    <s v="(991) 653-1409"/>
+    <d v="1997-09-04T00:00:00"/>
+    <x v="4"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25010016"/>
+    <s v="Culhane, John Michael"/>
+    <s v="1747 Culhane Street"/>
+    <s v="Dartville, DC 20070"/>
+    <s v="(991) 672-9478"/>
+    <d v="1996-08-26T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="25018576"/>
+    <s v="van Zalk, John Daniel"/>
+    <s v="2790 van Zalk Court"/>
+    <s v="Dartville, DC 20070"/>
+    <s v="(991) 448-8113"/>
+    <d v="1995-07-25T00:00:00"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="25014954"/>
+    <s v="Noriega, Jorge Henry"/>
+    <s v="3766 Noriega Blvd"/>
+    <s v="Dartville, DC 20073"/>
+    <s v="(991) 489-9434"/>
+    <d v="1996-10-09T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25012437"/>
+    <s v="Silk, Julian Jackson"/>
+    <s v="1986 Silk Drive"/>
+    <s v="Dartville, DC 20077"/>
+    <s v="(991) 823-7804"/>
+    <d v="1995-11-16T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25015625"/>
+    <s v="Tosani, Julian Sebastian"/>
+    <s v="2527 Tosani Street"/>
+    <s v="Dartville, DC 20078"/>
+    <s v="(991) 298-8830"/>
+    <d v="1998-05-10T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25011195"/>
+    <s v="Thomas, Justin Aiden"/>
+    <s v="2952 Thomas Court"/>
+    <s v="Dartville, DC 20076"/>
+    <s v="(991) 841-6389"/>
+    <d v="1992-02-04T00:00:00"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="25012944"/>
+    <s v="Jean, Manuel Matthew"/>
+    <s v="1510 Jean Drive"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 561-8406"/>
+    <d v="1994-04-24T00:00:00"/>
+    <x v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25015456"/>
+    <s v="Iglesias, Mario Samuel"/>
+    <s v="2083 Iglesias Avenue"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 494-8590"/>
+    <d v="1993-09-17T00:00:00"/>
+    <x v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="25017922"/>
+    <s v="Chinchilla, Marvin David"/>
+    <s v="335 Chinchilla Drive"/>
+    <s v="Dartville, DC 20071"/>
+    <s v="(991) 504-3256"/>
+    <d v="1995-07-20T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25013450"/>
+    <s v="Swehli, Nedal Joseph"/>
+    <s v="1639 Swehli Drive"/>
+    <s v="Dartville, DC 20079"/>
+    <s v="(991) 319-3922"/>
+    <d v="1998-01-19T00:00:00"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="25007419"/>
+    <s v="Grove, Nicholas Carter"/>
+    <s v="2033 Grove Court"/>
+    <s v="Dartville, DC 20075"/>
+    <s v="(991) 284-1405"/>
+    <d v="1998-02-02T00:00:00"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25016999"/>
+    <s v="Mourtoupalas, Nikolas Owen"/>
+    <s v="885 Mourtoupalas Court"/>
+    <s v="Dartville, DC 20071"/>
+    <s v="(991) 276-5724"/>
+    <d v="1996-04-23T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25014409"/>
+    <s v="Oyoo, Philip Wyatt"/>
+    <s v="4255 Oyoo Drive"/>
+    <s v="Dartville, DC 20079"/>
+    <s v="(991) 717-2093"/>
+    <d v="1991-05-31T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25016268"/>
+    <s v="Wondimu, Robel John"/>
+    <s v="4232 Wondimu Blvd"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 710-9973"/>
+    <d v="1997-02-02T00:00:00"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="25010655"/>
+    <s v="Powell, Stephen Jack"/>
+    <s v="2699 Powell Street"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 371-6965"/>
+    <d v="1998-04-27T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25016446"/>
+    <s v="Lanciotti, Steven Luke"/>
+    <s v="4220 Lanciotti Street"/>
+    <s v="Dartville, DC 20070"/>
+    <s v="(991) 529-3681"/>
+    <d v="1991-07-26T00:00:00"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25006634"/>
+    <s v="Konate, Taoule Jayden"/>
+    <s v="586 Konate Drive"/>
+    <s v="Dartville, DC 20072"/>
+    <s v="(991) 248-4912"/>
+    <d v="1997-09-06T00:00:00"/>
+    <x v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="25016896"/>
+    <s v="Burless, Thomas Dylan"/>
+    <s v="1203 Burless Court"/>
+    <s v="Dartville, DC 20074"/>
+    <s v="(991) 676-1588"/>
+    <d v="1993-10-03T00:00:00"/>
+    <x v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25016196"/>
+    <s v="Creegan, Thomas Grayson"/>
+    <s v="1695 Creegan Avenue"/>
+    <s v="Dartville, DC 20075"/>
+    <s v="(991) 639-7991"/>
+    <d v="1996-08-04T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="25017018"/>
+    <s v="Seymour, Will Levi"/>
+    <s v="2681 Seymour Drive"/>
+    <s v="Dartville, DC 20077"/>
+    <s v="(991) 264-4279"/>
+    <d v="1996-06-23T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="25015901"/>
+    <s v="Finneran, William Isaac"/>
+    <s v="406 Finneran Court"/>
+    <s v="Dartville, DC 20071"/>
+    <s v="(991) 799-1958"/>
+    <d v="1992-07-22T00:00:00"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="25018035"/>
+    <s v="Jones, William Gabriel"/>
+    <s v="4380 Jones Street"/>
+    <s v="Dartville, DC 20073"/>
+    <s v="(991) 454-2277"/>
+    <d v="1992-12-06T00:00:00"/>
+    <x v="6"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="25009952"/>
+    <s v="Shang, Xiaobing Julian"/>
+    <s v="3834 Shang Court"/>
+    <s v="Dartville, DC 20075"/>
+    <s v="(991) 520-6687"/>
+    <d v="1995-01-09T00:00:00"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="25007353"/>
+    <s v="Spahr, Zachary Mateo"/>
+    <s v="1420 Spahr Place"/>
+    <s v="Dartville, DC 20070"/>
+    <s v="(991) 656-6935"/>
+    <d v="1993-03-26T00:00:00"/>
+    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25010122"/>
+    <s v="Morrow, Zachary Anthony"/>
+    <s v="1192 Morrow Court"/>
+    <s v="Dartville, DC 20073"/>
+    <s v="(991) 724-4433"/>
+    <d v="1992-04-16T00:00:00"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Student ID" fld="0" subtotal="count" baseField="6" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C56" totalsRowShown="0">
   <autoFilter ref="A1:C56"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Student ID"/>
-    <tableColumn id="6" name="Birth Date" dataDxfId="7"/>
-    <tableColumn id="7" name="Gender" dataDxfId="6"/>
+    <tableColumn id="6" name="Birth Date" dataDxfId="17"/>
+    <tableColumn id="7" name="Gender" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F56" totalsRowShown="0">
-  <autoFilter ref="A1:F56"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:G56" totalsRowShown="0">
+  <autoFilter ref="A1:G56"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Student ID"/>
     <tableColumn id="2" name="Primary Address"/>
     <tableColumn id="3" name="City"/>
     <tableColumn id="4" name="State"/>
     <tableColumn id="5" name="Zip"/>
-    <tableColumn id="6" name="Primary Phone" dataDxfId="5"/>
+    <tableColumn id="6" name="Primary Phone" dataDxfId="15"/>
+    <tableColumn id="7" name="City, State Zip" dataDxfId="10">
+      <calculatedColumnFormula>C2&amp;", "&amp;D2&amp;" "&amp;E2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B56" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B56" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:B56"/>
   <sortState ref="A2:B56">
     <sortCondition ref="B1:B56"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Student ID" dataDxfId="2"/>
-    <tableColumn id="2" name="Diagnosis" dataDxfId="1"/>
+    <tableColumn id="1" name="Student ID" dataDxfId="12"/>
+    <tableColumn id="2" name="Diagnosis" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F60" totalsRowShown="0">
-  <autoFilter ref="A1:F60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F56" totalsRowShown="0">
+  <autoFilter ref="A1:F56"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Student ID"/>
     <tableColumn id="8" name="Gender"/>
     <tableColumn id="2" name="Last Name"/>
     <tableColumn id="3" name="First Name"/>
     <tableColumn id="7" name="Middle Name"/>
-    <tableColumn id="4" name="Full Name" dataDxfId="0"/>
+    <tableColumn id="4" name="Full Name" dataDxfId="5">
+      <calculatedColumnFormula>C2&amp;", "&amp;D2&amp;" "&amp;E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H56" totalsRowShown="0">
+  <autoFilter ref="A1:H56"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Student ID" dataDxfId="9"/>
+    <tableColumn id="2" name="Full Name">
+      <calculatedColumnFormula>VLOOKUP(A2,StudentList,6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Address">
+      <calculatedColumnFormula>VLOOKUP(A2,Address,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="City, State Zip">
+      <calculatedColumnFormula>VLOOKUP(A2,Address,7,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Phone Number">
+      <calculatedColumnFormula>VLOOKUP(A2,Address,6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Birth Date" dataDxfId="8">
+      <calculatedColumnFormula>VLOOKUP(A2,Demo,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Age">
+      <calculatedColumnFormula>DATEDIF(F2,TODAY(),"y")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Diagnosis">
+      <calculatedColumnFormula>VLOOKUP(A2,Diag,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table57" displayName="Table57" ref="A1:H56" totalsRowShown="0">
+  <autoFilter ref="A1:H56">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="25"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Student ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Full Name">
+      <calculatedColumnFormula>VLOOKUP(A2,StudentList,6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Address">
+      <calculatedColumnFormula>VLOOKUP(A2,Address,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="City, State Zip">
+      <calculatedColumnFormula>VLOOKUP(A2,Address,7,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Phone Number">
+      <calculatedColumnFormula>VLOOKUP(A2,Address,6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Birth Date" dataDxfId="6">
+      <calculatedColumnFormula>VLOOKUP(A2,Demo,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Age">
+      <calculatedColumnFormula>DATEDIF(F2,TODAY(),"y")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Diagnosis">
+      <calculatedColumnFormula>VLOOKUP(A2,Diag,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1518,9 +2465,7 @@
   </sheetPr>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2159,10 +3104,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,10 +3118,11 @@
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -2195,8 +3141,11 @@
       <c r="F1" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>25008833</v>
       </c>
@@ -2215,8 +3164,12 @@
       <c r="F2" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G33" si="0">C2&amp;", "&amp;D2&amp;" "&amp;E2</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>25015731</v>
       </c>
@@ -2235,8 +3188,12 @@
       <c r="F3" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25010582</v>
       </c>
@@ -2255,8 +3212,12 @@
       <c r="F4" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>25018253</v>
       </c>
@@ -2275,8 +3236,12 @@
       <c r="F5" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25019408</v>
       </c>
@@ -2295,8 +3260,12 @@
       <c r="F6" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25016539</v>
       </c>
@@ -2315,8 +3284,12 @@
       <c r="F7" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25016675</v>
       </c>
@@ -2335,8 +3308,12 @@
       <c r="F8" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25017367</v>
       </c>
@@ -2355,8 +3332,12 @@
       <c r="F9" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25014193</v>
       </c>
@@ -2375,8 +3356,12 @@
       <c r="F10" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25010928</v>
       </c>
@@ -2395,8 +3380,12 @@
       <c r="F11" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25013750</v>
       </c>
@@ -2415,8 +3404,12 @@
       <c r="F12" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25018702</v>
       </c>
@@ -2435,8 +3428,12 @@
       <c r="F13" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25010016</v>
       </c>
@@ -2455,8 +3452,12 @@
       <c r="F14" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>25018576</v>
       </c>
@@ -2475,8 +3476,12 @@
       <c r="F15" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20070</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25012437</v>
       </c>
@@ -2495,8 +3500,12 @@
       <c r="F16" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>25015625</v>
       </c>
@@ -2515,8 +3524,12 @@
       <c r="F17" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25011195</v>
       </c>
@@ -2535,8 +3548,12 @@
       <c r="F18" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25007190</v>
       </c>
@@ -2555,8 +3572,12 @@
       <c r="F19" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>25016020</v>
       </c>
@@ -2575,8 +3596,12 @@
       <c r="F20" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25012944</v>
       </c>
@@ -2595,8 +3620,12 @@
       <c r="F21" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25015456</v>
       </c>
@@ -2615,8 +3644,12 @@
       <c r="F22" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25016460</v>
       </c>
@@ -2635,8 +3668,12 @@
       <c r="F23" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25013450</v>
       </c>
@@ -2655,8 +3692,12 @@
       <c r="F24" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25015674</v>
       </c>
@@ -2675,8 +3716,12 @@
       <c r="F25" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25006634</v>
       </c>
@@ -2695,8 +3740,12 @@
       <c r="F26" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25016896</v>
       </c>
@@ -2715,8 +3764,12 @@
       <c r="F27" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25017018</v>
       </c>
@@ -2735,8 +3788,12 @@
       <c r="F28" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25007353</v>
       </c>
@@ -2755,8 +3812,12 @@
       <c r="F29" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25017242</v>
       </c>
@@ -2775,8 +3836,12 @@
       <c r="F30" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>25012794</v>
       </c>
@@ -2795,8 +3860,12 @@
       <c r="F31" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25010276</v>
       </c>
@@ -2815,8 +3884,12 @@
       <c r="F32" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25011190</v>
       </c>
@@ -2835,8 +3908,12 @@
       <c r="F33" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Dartville, DC 20070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>25012819</v>
       </c>
@@ -2855,8 +3932,12 @@
       <c r="F34" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="str">
+        <f t="shared" ref="G34:G56" si="1">C34&amp;", "&amp;D34&amp;" "&amp;E34</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25018061</v>
       </c>
@@ -2875,8 +3956,12 @@
       <c r="F35" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25014751</v>
       </c>
@@ -2895,8 +3980,12 @@
       <c r="F36" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25018014</v>
       </c>
@@ -2915,8 +4004,12 @@
       <c r="F37" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25011994</v>
       </c>
@@ -2935,8 +4028,12 @@
       <c r="F38" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>25011962</v>
       </c>
@@ -2955,8 +4052,12 @@
       <c r="F39" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25007608</v>
       </c>
@@ -2975,8 +4076,12 @@
       <c r="F40" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25014954</v>
       </c>
@@ -2995,8 +4100,12 @@
       <c r="F41" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20073</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>25017922</v>
       </c>
@@ -3015,8 +4124,12 @@
       <c r="F42" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25007419</v>
       </c>
@@ -3035,8 +4148,12 @@
       <c r="F43" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>25016999</v>
       </c>
@@ -3055,8 +4172,12 @@
       <c r="F44" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>25014409</v>
       </c>
@@ -3075,8 +4196,12 @@
       <c r="F45" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20079</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>25008738</v>
       </c>
@@ -3095,8 +4220,12 @@
       <c r="F46" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>25016268</v>
       </c>
@@ -3115,8 +4244,12 @@
       <c r="F47" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>25010655</v>
       </c>
@@ -3135,8 +4268,12 @@
       <c r="F48" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20074</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>25016446</v>
       </c>
@@ -3155,8 +4292,12 @@
       <c r="F49" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20070</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>25017285</v>
       </c>
@@ -3175,8 +4316,12 @@
       <c r="F50" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>25011891</v>
       </c>
@@ -3195,8 +4340,12 @@
       <c r="F51" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>25016196</v>
       </c>
@@ -3215,8 +4364,12 @@
       <c r="F52" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>25015901</v>
       </c>
@@ -3235,8 +4388,12 @@
       <c r="F53" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>25018035</v>
       </c>
@@ -3255,8 +4412,12 @@
       <c r="F54" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20073</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>25009952</v>
       </c>
@@ -3275,8 +4436,12 @@
       <c r="F55" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20075</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>25010122</v>
       </c>
@@ -3294,6 +4459,10 @@
       </c>
       <c r="F56" s="2" t="s">
         <v>288</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dartville, DC 20073</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +4481,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B8" sqref="A2:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,7 +4953,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3831,6 +5000,10 @@
       <c r="E2" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2:F33" si="0">C2&amp;", "&amp;D2&amp;" "&amp;E2</f>
+        <v>Balcom, Brittany Emma</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3848,6 +5021,10 @@
       <c r="E3" t="s">
         <v>173</v>
       </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>Kent, Chandra Olivia</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3865,6 +5042,10 @@
       <c r="E4" t="s">
         <v>174</v>
       </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mack, Demetria Ava</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3882,6 +5063,10 @@
       <c r="E5" t="s">
         <v>175</v>
       </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Luongo, Desiree Isabella</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3899,6 +5084,10 @@
       <c r="E6" t="s">
         <v>176</v>
       </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Light, Ericka Sophia</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3916,6 +5105,10 @@
       <c r="E7" t="s">
         <v>177</v>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Xu, Fangyi Charlotte</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3933,6 +5126,10 @@
       <c r="E8" t="s">
         <v>178</v>
       </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Alomoge, Fatima Mia</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3950,6 +5147,10 @@
       <c r="E9" t="s">
         <v>179</v>
       </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sundaresan, Gayatri Amelia</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3967,6 +5168,10 @@
       <c r="E10" t="s">
         <v>180</v>
       </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Javier, Janice Harper</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3984,6 +5189,10 @@
       <c r="E11" t="s">
         <v>181</v>
       </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Gwon, Jean Evelyn</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4001,6 +5210,10 @@
       <c r="E12" t="s">
         <v>182</v>
       </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Gorska, Katarzyna Abigail</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4018,6 +5231,10 @@
       <c r="E13" t="s">
         <v>183</v>
       </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Carr, Keisha Emily</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4035,6 +5252,10 @@
       <c r="E14" t="s">
         <v>184</v>
       </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Wilson, Michelle Elizabeth</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4052,6 +5273,10 @@
       <c r="E15" t="s">
         <v>185</v>
       </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Ren, Qing Mila</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4069,8 +5294,12 @@
       <c r="E16" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tiwari, Rina Ella</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25017285</v>
       </c>
@@ -4086,8 +5315,12 @@
       <c r="E17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Jain, Sumita Avery</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25011891</v>
       </c>
@@ -4103,8 +5336,12 @@
       <c r="E18" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Rangat, Tara Sofia</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25008833</v>
       </c>
@@ -4120,8 +5357,12 @@
       <c r="E19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Isaacson, Aaron Liam</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25015731</v>
       </c>
@@ -4137,8 +5378,12 @@
       <c r="E20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Black, Alex Noah</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25017242</v>
       </c>
@@ -4154,8 +5399,12 @@
       <c r="E21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ebanks, Andre William</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25010582</v>
       </c>
@@ -4171,8 +5420,12 @@
       <c r="E22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Schneider, Brett James</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>25010276</v>
       </c>
@@ -4188,8 +5441,12 @@
       <c r="E23" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ventura, David Oliver</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25019408</v>
       </c>
@@ -4205,8 +5462,12 @@
       <c r="E24" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Thompson, Edwin Benjamin</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25018061</v>
       </c>
@@ -4222,8 +5483,12 @@
       <c r="E25" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Selimaj, Elvis Elijah</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25016675</v>
       </c>
@@ -4239,8 +5504,12 @@
       <c r="E26" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Tate, Hannah Lucas</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25017367</v>
       </c>
@@ -4256,8 +5525,12 @@
       <c r="E27" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Lodhi, Hussain Mason</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25014193</v>
       </c>
@@ -4273,8 +5546,12 @@
       <c r="E28" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Khalil, Hythem Logan</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25010928</v>
       </c>
@@ -4290,8 +5567,12 @@
       <c r="E29" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Woltman, Jack Alexander</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25007608</v>
       </c>
@@ -4307,8 +5588,12 @@
       <c r="E30" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Torczon, Jethro Ethan</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25018702</v>
       </c>
@@ -4324,8 +5609,12 @@
       <c r="E31" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Najmi, Johar Jacob</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25010016</v>
       </c>
@@ -4341,8 +5630,12 @@
       <c r="E32" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Culhane, John Michael</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25018576</v>
       </c>
@@ -4358,8 +5651,12 @@
       <c r="E33" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>van Zalk, John Daniel</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25014954</v>
       </c>
@@ -4375,8 +5672,12 @@
       <c r="E34" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" ref="F34:F56" si="1">C34&amp;", "&amp;D34&amp;" "&amp;E34</f>
+        <v>Noriega, Jorge Henry</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25012437</v>
       </c>
@@ -4392,8 +5693,12 @@
       <c r="E35" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>Silk, Julian Jackson</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>25015625</v>
       </c>
@@ -4409,8 +5714,12 @@
       <c r="E36" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>Tosani, Julian Sebastian</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25011195</v>
       </c>
@@ -4426,8 +5735,12 @@
       <c r="E37" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas, Justin Aiden</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25012944</v>
       </c>
@@ -4443,8 +5756,12 @@
       <c r="E38" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>Jean, Manuel Matthew</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25015456</v>
       </c>
@@ -4460,8 +5777,12 @@
       <c r="E39" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Iglesias, Mario Samuel</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>25017922</v>
       </c>
@@ -4477,8 +5798,12 @@
       <c r="E40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Chinchilla, Marvin David</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>25013450</v>
       </c>
@@ -4494,8 +5819,12 @@
       <c r="E41" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>Swehli, Nedal Joseph</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25007419</v>
       </c>
@@ -4511,8 +5840,12 @@
       <c r="E42" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>Grove, Nicholas Carter</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>25016999</v>
       </c>
@@ -4528,8 +5861,12 @@
       <c r="E43" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>Mourtoupalas, Nikolas Owen</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>25014409</v>
       </c>
@@ -4545,8 +5882,12 @@
       <c r="E44" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Oyoo, Philip Wyatt</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>25016268</v>
       </c>
@@ -4562,8 +5903,12 @@
       <c r="E45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>Wondimu, Robel John</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>25010655</v>
       </c>
@@ -4579,8 +5924,12 @@
       <c r="E46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>Powell, Stephen Jack</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>25016446</v>
       </c>
@@ -4596,8 +5945,12 @@
       <c r="E47" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>Lanciotti, Steven Luke</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>25006634</v>
       </c>
@@ -4613,8 +5966,12 @@
       <c r="E48" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>Konate, Taoule Jayden</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25016896</v>
       </c>
@@ -4630,8 +5987,12 @@
       <c r="E49" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>Burless, Thomas Dylan</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>25016196</v>
       </c>
@@ -4647,8 +6008,12 @@
       <c r="E50" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>Creegan, Thomas Grayson</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>25017018</v>
       </c>
@@ -4664,8 +6029,12 @@
       <c r="E51" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>Seymour, Will Levi</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25015901</v>
       </c>
@@ -4681,8 +6050,12 @@
       <c r="E52" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>Finneran, William Isaac</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25018035</v>
       </c>
@@ -4698,8 +6071,12 @@
       <c r="E53" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones, William Gabriel</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>25009952</v>
       </c>
@@ -4715,8 +6092,12 @@
       <c r="E54" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>Shang, Xiaobing Julian</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>25007353</v>
       </c>
@@ -4732,8 +6113,12 @@
       <c r="E55" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>Spahr, Zachary Mateo</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>25010122</v>
       </c>
@@ -4748,6 +6133,10 @@
       </c>
       <c r="E56" t="s">
         <v>221</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>Morrow, Zachary Anthony</v>
       </c>
     </row>
   </sheetData>
@@ -4765,20 +6154,20 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D6" sqref="A2:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="12" max="12" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4810,173 +6199,4060 @@
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3">
+        <v>25012794</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,StudentList,6,FALSE)</f>
+        <v>Balcom, Brittany Emma</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,Address,2,FALSE)</f>
+        <v>3322 Balcom Avenue</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(A2,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(A2,Address,6,FALSE)</f>
+        <v>(991) 381-7853</v>
+      </c>
+      <c r="F2" s="2">
+        <f>VLOOKUP(A2,Demo,2,FALSE)</f>
+        <v>35277</v>
+      </c>
+      <c r="G2">
+        <f ca="1">DATEDIF(F2,TODAY(),"y")</f>
+        <v>23</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(A2,Diag,2,FALSE)</f>
+        <v>The GOAT</v>
+      </c>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3">
+        <v>25018253</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,StudentList,6,FALSE)</f>
+        <v>Kent, Chandra Olivia</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(A3,Address,2,FALSE)</f>
+        <v>323 Kent Drive</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(A3,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>VLOOKUP(A3,Address,6,FALSE)</f>
+        <v>(991) 586-7500</v>
+      </c>
+      <c r="F3" s="2">
+        <f>VLOOKUP(A3,Demo,2,FALSE)</f>
+        <v>35784</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G56" ca="1" si="0">DATEDIF(F3,TODAY(),"y")</f>
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>VLOOKUP(A3,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3">
+        <v>25011190</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,StudentList,6,FALSE)</f>
+        <v>Mack, Demetria Ava</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(A4,Address,2,FALSE)</f>
+        <v>2096 Mack Street</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(A4,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>VLOOKUP(A4,Address,6,FALSE)</f>
+        <v>(991) 415-9544</v>
+      </c>
+      <c r="F4" s="2">
+        <f>VLOOKUP(A4,Demo,2,FALSE)</f>
+        <v>33698</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(A4,Diag,2,FALSE)</f>
+        <v>Amazing</v>
+      </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3">
+        <v>25012819</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,StudentList,6,FALSE)</f>
+        <v>Luongo, Desiree Isabella</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(A5,Address,2,FALSE)</f>
+        <v>656 Luongo Place</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(A5,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>VLOOKUP(A5,Address,6,FALSE)</f>
+        <v>(991) 700-4183</v>
+      </c>
+      <c r="F5" s="2">
+        <f>VLOOKUP(A5,Demo,2,FALSE)</f>
+        <v>34690</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>VLOOKUP(A5,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3">
+        <v>25016539</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,StudentList,6,FALSE)</f>
+        <v>Light, Ericka Sophia</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(A6,Address,2,FALSE)</f>
+        <v>2956 Light Avenue</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(A6,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>VLOOKUP(A6,Address,6,FALSE)</f>
+        <v>(991) 213-2443</v>
+      </c>
+      <c r="F6" s="2">
+        <f>VLOOKUP(A6,Demo,2,FALSE)</f>
+        <v>35200</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>VLOOKUP(A6,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3">
+        <v>25014751</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,StudentList,6,FALSE)</f>
+        <v>Xu, Fangyi Charlotte</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(A7,Address,2,FALSE)</f>
+        <v>3293 Xu Court</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(A7,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>VLOOKUP(A7,Address,6,FALSE)</f>
+        <v>(991) 982-7384</v>
+      </c>
+      <c r="F7" s="2">
+        <f>VLOOKUP(A7,Demo,2,FALSE)</f>
+        <v>35507</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>VLOOKUP(A7,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3">
+        <v>25018014</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,StudentList,6,FALSE)</f>
+        <v>Alomoge, Fatima Mia</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Address,2,FALSE)</f>
+        <v>2605 Alomoge Street</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(A8,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>VLOOKUP(A8,Address,6,FALSE)</f>
+        <v>(991) 893-8997</v>
+      </c>
+      <c r="F8" s="2">
+        <f>VLOOKUP(A8,Demo,2,FALSE)</f>
+        <v>33742</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>VLOOKUP(A8,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3">
+        <v>25011994</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,StudentList,6,FALSE)</f>
+        <v>Sundaresan, Gayatri Amelia</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(A9,Address,2,FALSE)</f>
+        <v>1564 Sundaresan Avenue</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(A9,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>VLOOKUP(A9,Address,6,FALSE)</f>
+        <v>(991) 597-8026</v>
+      </c>
+      <c r="F9" s="2">
+        <f>VLOOKUP(A9,Demo,2,FALSE)</f>
+        <v>35340</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>VLOOKUP(A9,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3">
+        <v>25013750</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,StudentList,6,FALSE)</f>
+        <v>Javier, Janice Harper</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(A10,Address,2,FALSE)</f>
+        <v>3208 Javier Drive</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(A10,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>VLOOKUP(A10,Address,6,FALSE)</f>
+        <v>(991) 264-3081</v>
+      </c>
+      <c r="F10" s="2">
+        <f>VLOOKUP(A10,Demo,2,FALSE)</f>
+        <v>34559</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>VLOOKUP(A10,Diag,2,FALSE)</f>
+        <v>Fierce</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3">
+        <v>25011962</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,StudentList,6,FALSE)</f>
+        <v>Gwon, Jean Evelyn</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Address,2,FALSE)</f>
+        <v>4546 Gwon Blvd</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(A11,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>VLOOKUP(A11,Address,6,FALSE)</f>
+        <v>(991) 748-1984</v>
+      </c>
+      <c r="F11" s="2">
+        <f>VLOOKUP(A11,Demo,2,FALSE)</f>
+        <v>35826</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>VLOOKUP(A11,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3">
+        <v>25007190</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,StudentList,6,FALSE)</f>
+        <v>Gorska, Katarzyna Abigail</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(A12,Address,2,FALSE)</f>
+        <v>3804 Gorska Avenue</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(A12,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>VLOOKUP(A12,Address,6,FALSE)</f>
+        <v>(991) 550-6111</v>
+      </c>
+      <c r="F12" s="2">
+        <f>VLOOKUP(A12,Demo,2,FALSE)</f>
+        <v>35258</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>VLOOKUP(A12,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3">
+        <v>25016020</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,StudentList,6,FALSE)</f>
+        <v>Carr, Keisha Emily</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(A13,Address,2,FALSE)</f>
+        <v>4105 Carr Blvd</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(A13,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>VLOOKUP(A13,Address,6,FALSE)</f>
+        <v>(991) 450-9844</v>
+      </c>
+      <c r="F13" s="2">
+        <f>VLOOKUP(A13,Demo,2,FALSE)</f>
+        <v>34883</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>VLOOKUP(A13,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3">
+        <v>25016460</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,StudentList,6,FALSE)</f>
+        <v>Wilson, Michelle Elizabeth</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(A14,Address,2,FALSE)</f>
+        <v>2792 Wilson Avenue</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(A14,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>VLOOKUP(A14,Address,6,FALSE)</f>
+        <v>(991) 546-6800</v>
+      </c>
+      <c r="F14" s="2">
+        <f>VLOOKUP(A14,Demo,2,FALSE)</f>
+        <v>33964</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>VLOOKUP(A14,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3">
+        <v>25015674</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,StudentList,6,FALSE)</f>
+        <v>Ren, Qing Mila</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(A15,Address,2,FALSE)</f>
+        <v>771 Ren Place</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(A15,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>VLOOKUP(A15,Address,6,FALSE)</f>
+        <v>(991) 855-8115</v>
+      </c>
+      <c r="F15" s="2">
+        <f>VLOOKUP(A15,Demo,2,FALSE)</f>
+        <v>35870</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>VLOOKUP(A15,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A16" s="3">
+        <v>25008738</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,StudentList,6,FALSE)</f>
+        <v>Tiwari, Rina Ella</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>VLOOKUP(A16,Address,2,FALSE)</f>
+        <v>4455 Tiwari Avenue</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(A16,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>VLOOKUP(A16,Address,6,FALSE)</f>
+        <v>(991) 584-4352</v>
+      </c>
+      <c r="F16" s="2">
+        <f>VLOOKUP(A16,Demo,2,FALSE)</f>
+        <v>35128</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>VLOOKUP(A16,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>25017285</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,StudentList,6,FALSE)</f>
+        <v>Jain, Sumita Avery</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(A17,Address,2,FALSE)</f>
+        <v>1326 Jain Blvd</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(A17,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>VLOOKUP(A17,Address,6,FALSE)</f>
+        <v>(991) 780-8539</v>
+      </c>
+      <c r="F17" s="2">
+        <f>VLOOKUP(A17,Demo,2,FALSE)</f>
+        <v>33911</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>VLOOKUP(A17,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>25011891</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,StudentList,6,FALSE)</f>
+        <v>Rangat, Tara Sofia</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(A18,Address,2,FALSE)</f>
+        <v>962 Rangat Drive</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(A18,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>VLOOKUP(A18,Address,6,FALSE)</f>
+        <v>(991) 636-5688</v>
+      </c>
+      <c r="F18" s="2">
+        <f>VLOOKUP(A18,Demo,2,FALSE)</f>
+        <v>33800</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>VLOOKUP(A18,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>25008833</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,StudentList,6,FALSE)</f>
+        <v>Isaacson, Aaron Liam</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(A19,Address,2,FALSE)</f>
+        <v>3179 Isaacson Place</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(A19,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>VLOOKUP(A19,Address,6,FALSE)</f>
+        <v>(991) 473-7167</v>
+      </c>
+      <c r="F19" s="2">
+        <f>VLOOKUP(A19,Demo,2,FALSE)</f>
+        <v>35522</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>VLOOKUP(A19,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>25015731</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,StudentList,6,FALSE)</f>
+        <v>Black, Alex Noah</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(A20,Address,2,FALSE)</f>
+        <v>1735 Black Avenue</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(A20,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>VLOOKUP(A20,Address,6,FALSE)</f>
+        <v>(991) 653-9879</v>
+      </c>
+      <c r="F20" s="2">
+        <f>VLOOKUP(A20,Demo,2,FALSE)</f>
+        <v>35318</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>VLOOKUP(A20,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>25017242</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,StudentList,6,FALSE)</f>
+        <v>Ebanks, Andre William</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>VLOOKUP(A21,Address,2,FALSE)</f>
+        <v>1077 Ebanks Avenue</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>VLOOKUP(A21,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>VLOOKUP(A21,Address,6,FALSE)</f>
+        <v>(991) 262-7832</v>
+      </c>
+      <c r="F21" s="2">
+        <f>VLOOKUP(A21,Demo,2,FALSE)</f>
+        <v>35800</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>VLOOKUP(A21,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>25010582</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,StudentList,6,FALSE)</f>
+        <v>Schneider, Brett James</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Address,2,FALSE)</f>
+        <v>105 Schneider Street</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>VLOOKUP(A22,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>VLOOKUP(A22,Address,6,FALSE)</f>
+        <v>(991) 941-1852</v>
+      </c>
+      <c r="F22" s="2">
+        <f>VLOOKUP(A22,Demo,2,FALSE)</f>
+        <v>33406</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>VLOOKUP(A22,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>25010276</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,StudentList,6,FALSE)</f>
+        <v>Ventura, David Oliver</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>VLOOKUP(A23,Address,2,FALSE)</f>
+        <v>4698 Ventura Place</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>VLOOKUP(A23,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>VLOOKUP(A23,Address,6,FALSE)</f>
+        <v>(991) 631-1491</v>
+      </c>
+      <c r="F23" s="2">
+        <f>VLOOKUP(A23,Demo,2,FALSE)</f>
+        <v>35390</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>VLOOKUP(A23,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>25019408</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,StudentList,6,FALSE)</f>
+        <v>Thompson, Edwin Benjamin</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(A24,Address,2,FALSE)</f>
+        <v>957 Thompson Blvd</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>VLOOKUP(A24,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>VLOOKUP(A24,Address,6,FALSE)</f>
+        <v>(991) 952-5337</v>
+      </c>
+      <c r="F24" s="2">
+        <f>VLOOKUP(A24,Demo,2,FALSE)</f>
+        <v>33842</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>VLOOKUP(A24,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>25018061</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,StudentList,6,FALSE)</f>
+        <v>Selimaj, Elvis Elijah</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(A25,Address,2,FALSE)</f>
+        <v>3147 Selimaj Street</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>VLOOKUP(A25,Address,7,FALSE)</f>
+        <v>Dartville, DC 20072</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>VLOOKUP(A25,Address,6,FALSE)</f>
+        <v>(991) 889-8098</v>
+      </c>
+      <c r="F25" s="2">
+        <f>VLOOKUP(A25,Demo,2,FALSE)</f>
+        <v>35014</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>VLOOKUP(A25,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25016675</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,StudentList,6,FALSE)</f>
+        <v>Tate, Hannah Lucas</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(A26,Address,2,FALSE)</f>
+        <v>2916 Tate Street</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>VLOOKUP(A26,Address,7,FALSE)</f>
+        <v>Dartville, DC 20072</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>VLOOKUP(A26,Address,6,FALSE)</f>
+        <v>(991) 801-1140</v>
+      </c>
+      <c r="F26" s="2">
+        <f>VLOOKUP(A26,Demo,2,FALSE)</f>
+        <v>34635</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>VLOOKUP(A26,Diag,2,FALSE)</f>
+        <v>Amazing</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25017367</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,StudentList,6,FALSE)</f>
+        <v>Lodhi, Hussain Mason</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(A27,Address,2,FALSE)</f>
+        <v>943 Lodhi Court</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>VLOOKUP(A27,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>VLOOKUP(A27,Address,6,FALSE)</f>
+        <v>(991) 257-5982</v>
+      </c>
+      <c r="F27" s="2">
+        <f>VLOOKUP(A27,Demo,2,FALSE)</f>
+        <v>34019</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>VLOOKUP(A27,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25014193</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,StudentList,6,FALSE)</f>
+        <v>Khalil, Hythem Logan</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>VLOOKUP(A28,Address,2,FALSE)</f>
+        <v>4703 Khalil Blvd</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>VLOOKUP(A28,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>VLOOKUP(A28,Address,6,FALSE)</f>
+        <v>(991) 572-6278</v>
+      </c>
+      <c r="F28" s="2">
+        <f>VLOOKUP(A28,Demo,2,FALSE)</f>
+        <v>35926</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>VLOOKUP(A28,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>25010928</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,StudentList,6,FALSE)</f>
+        <v>Woltman, Jack Alexander</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(A29,Address,2,FALSE)</f>
+        <v>2325 Woltman Drive</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>VLOOKUP(A29,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>VLOOKUP(A29,Address,6,FALSE)</f>
+        <v>(991) 659-7287</v>
+      </c>
+      <c r="F29" s="2">
+        <f>VLOOKUP(A29,Demo,2,FALSE)</f>
+        <v>34886</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>VLOOKUP(A29,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25007608</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,StudentList,6,FALSE)</f>
+        <v>Torczon, Jethro Ethan</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(A30,Address,2,FALSE)</f>
+        <v>1092 Torczon Court</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>VLOOKUP(A30,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>VLOOKUP(A30,Address,6,FALSE)</f>
+        <v>(991) 640-2521</v>
+      </c>
+      <c r="F30" s="2">
+        <f>VLOOKUP(A30,Demo,2,FALSE)</f>
+        <v>35665</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>VLOOKUP(A30,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>25018702</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,StudentList,6,FALSE)</f>
+        <v>Najmi, Johar Jacob</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(A31,Address,2,FALSE)</f>
+        <v>4852 Najmi Court</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>VLOOKUP(A31,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>VLOOKUP(A31,Address,6,FALSE)</f>
+        <v>(991) 653-1409</v>
+      </c>
+      <c r="F31" s="2">
+        <f>VLOOKUP(A31,Demo,2,FALSE)</f>
+        <v>35677</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>VLOOKUP(A31,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>25010016</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,StudentList,6,FALSE)</f>
+        <v>Culhane, John Michael</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(A32,Address,2,FALSE)</f>
+        <v>1747 Culhane Street</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>VLOOKUP(A32,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>VLOOKUP(A32,Address,6,FALSE)</f>
+        <v>(991) 672-9478</v>
+      </c>
+      <c r="F32" s="2">
+        <f>VLOOKUP(A32,Demo,2,FALSE)</f>
+        <v>35303</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>VLOOKUP(A32,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>25018576</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,StudentList,6,FALSE)</f>
+        <v>van Zalk, John Daniel</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(A33,Address,2,FALSE)</f>
+        <v>2790 van Zalk Court</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>VLOOKUP(A33,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>VLOOKUP(A33,Address,6,FALSE)</f>
+        <v>(991) 448-8113</v>
+      </c>
+      <c r="F33" s="2">
+        <f>VLOOKUP(A33,Demo,2,FALSE)</f>
+        <v>34905</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>VLOOKUP(A33,Diag,2,FALSE)</f>
+        <v>Fierce</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>25014954</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,StudentList,6,FALSE)</f>
+        <v>Noriega, Jorge Henry</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(A34,Address,2,FALSE)</f>
+        <v>3766 Noriega Blvd</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>VLOOKUP(A34,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>VLOOKUP(A34,Address,6,FALSE)</f>
+        <v>(991) 489-9434</v>
+      </c>
+      <c r="F34" s="2">
+        <f>VLOOKUP(A34,Demo,2,FALSE)</f>
+        <v>35347</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>VLOOKUP(A34,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>25012437</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,StudentList,6,FALSE)</f>
+        <v>Silk, Julian Jackson</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(A35,Address,2,FALSE)</f>
+        <v>1986 Silk Drive</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>VLOOKUP(A35,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>VLOOKUP(A35,Address,6,FALSE)</f>
+        <v>(991) 823-7804</v>
+      </c>
+      <c r="F35" s="2">
+        <f>VLOOKUP(A35,Demo,2,FALSE)</f>
+        <v>35019</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f>VLOOKUP(A35,Diag,2,FALSE)</f>
+        <v>Amazing</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>25015625</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,StudentList,6,FALSE)</f>
+        <v>Tosani, Julian Sebastian</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(A36,Address,2,FALSE)</f>
+        <v>2527 Tosani Street</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>VLOOKUP(A36,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>VLOOKUP(A36,Address,6,FALSE)</f>
+        <v>(991) 298-8830</v>
+      </c>
+      <c r="F36" s="2">
+        <f>VLOOKUP(A36,Demo,2,FALSE)</f>
+        <v>35925</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>VLOOKUP(A36,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>25011195</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,StudentList,6,FALSE)</f>
+        <v>Thomas, Justin Aiden</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(A37,Address,2,FALSE)</f>
+        <v>2952 Thomas Court</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>VLOOKUP(A37,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>VLOOKUP(A37,Address,6,FALSE)</f>
+        <v>(991) 841-6389</v>
+      </c>
+      <c r="F37" s="2">
+        <f>VLOOKUP(A37,Demo,2,FALSE)</f>
+        <v>33638</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>VLOOKUP(A37,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>25012944</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,StudentList,6,FALSE)</f>
+        <v>Jean, Manuel Matthew</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(A38,Address,2,FALSE)</f>
+        <v>1510 Jean Drive</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>VLOOKUP(A38,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>VLOOKUP(A38,Address,6,FALSE)</f>
+        <v>(991) 561-8406</v>
+      </c>
+      <c r="F38" s="2">
+        <f>VLOOKUP(A38,Demo,2,FALSE)</f>
+        <v>34448</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>VLOOKUP(A38,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>25015456</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,StudentList,6,FALSE)</f>
+        <v>Iglesias, Mario Samuel</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(A39,Address,2,FALSE)</f>
+        <v>2083 Iglesias Avenue</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>VLOOKUP(A39,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>VLOOKUP(A39,Address,6,FALSE)</f>
+        <v>(991) 494-8590</v>
+      </c>
+      <c r="F39" s="2">
+        <f>VLOOKUP(A39,Demo,2,FALSE)</f>
+        <v>34229</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f>VLOOKUP(A39,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>25017922</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>VLOOKUP(A40,StudentList,6,FALSE)</f>
+        <v>Chinchilla, Marvin David</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(A40,Address,2,FALSE)</f>
+        <v>335 Chinchilla Drive</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>VLOOKUP(A40,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>VLOOKUP(A40,Address,6,FALSE)</f>
+        <v>(991) 504-3256</v>
+      </c>
+      <c r="F40" s="2">
+        <f>VLOOKUP(A40,Demo,2,FALSE)</f>
+        <v>34900</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f>VLOOKUP(A40,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>25013450</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>VLOOKUP(A41,StudentList,6,FALSE)</f>
+        <v>Swehli, Nedal Joseph</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(A41,Address,2,FALSE)</f>
+        <v>1639 Swehli Drive</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>VLOOKUP(A41,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>VLOOKUP(A41,Address,6,FALSE)</f>
+        <v>(991) 319-3922</v>
+      </c>
+      <c r="F41" s="2">
+        <f>VLOOKUP(A41,Demo,2,FALSE)</f>
+        <v>35814</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f>VLOOKUP(A41,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>25007419</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>VLOOKUP(A42,StudentList,6,FALSE)</f>
+        <v>Grove, Nicholas Carter</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(A42,Address,2,FALSE)</f>
+        <v>2033 Grove Court</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>VLOOKUP(A42,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>VLOOKUP(A42,Address,6,FALSE)</f>
+        <v>(991) 284-1405</v>
+      </c>
+      <c r="F42" s="2">
+        <f>VLOOKUP(A42,Demo,2,FALSE)</f>
+        <v>35828</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>VLOOKUP(A42,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>25016999</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>VLOOKUP(A43,StudentList,6,FALSE)</f>
+        <v>Mourtoupalas, Nikolas Owen</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(A43,Address,2,FALSE)</f>
+        <v>885 Mourtoupalas Court</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>VLOOKUP(A43,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>VLOOKUP(A43,Address,6,FALSE)</f>
+        <v>(991) 276-5724</v>
+      </c>
+      <c r="F43" s="2">
+        <f>VLOOKUP(A43,Demo,2,FALSE)</f>
+        <v>35178</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>VLOOKUP(A43,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>25014409</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>VLOOKUP(A44,StudentList,6,FALSE)</f>
+        <v>Oyoo, Philip Wyatt</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(A44,Address,2,FALSE)</f>
+        <v>4255 Oyoo Drive</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>VLOOKUP(A44,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>VLOOKUP(A44,Address,6,FALSE)</f>
+        <v>(991) 717-2093</v>
+      </c>
+      <c r="F44" s="2">
+        <f>VLOOKUP(A44,Demo,2,FALSE)</f>
+        <v>33389</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f>VLOOKUP(A44,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>25016268</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>VLOOKUP(A45,StudentList,6,FALSE)</f>
+        <v>Wondimu, Robel John</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(A45,Address,2,FALSE)</f>
+        <v>4232 Wondimu Blvd</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>VLOOKUP(A45,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>VLOOKUP(A45,Address,6,FALSE)</f>
+        <v>(991) 710-9973</v>
+      </c>
+      <c r="F45" s="2">
+        <f>VLOOKUP(A45,Demo,2,FALSE)</f>
+        <v>35463</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>VLOOKUP(A45,Diag,2,FALSE)</f>
+        <v>Fierce</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>25010655</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,StudentList,6,FALSE)</f>
+        <v>Powell, Stephen Jack</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(A46,Address,2,FALSE)</f>
+        <v>2699 Powell Street</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>VLOOKUP(A46,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>VLOOKUP(A46,Address,6,FALSE)</f>
+        <v>(991) 371-6965</v>
+      </c>
+      <c r="F46" s="2">
+        <f>VLOOKUP(A46,Demo,2,FALSE)</f>
+        <v>35912</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f>VLOOKUP(A46,Diag,2,FALSE)</f>
+        <v>The GOAT</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>25016446</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>VLOOKUP(A47,StudentList,6,FALSE)</f>
+        <v>Lanciotti, Steven Luke</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(A47,Address,2,FALSE)</f>
+        <v>4220 Lanciotti Street</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>VLOOKUP(A47,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>VLOOKUP(A47,Address,6,FALSE)</f>
+        <v>(991) 529-3681</v>
+      </c>
+      <c r="F47" s="2">
+        <f>VLOOKUP(A47,Demo,2,FALSE)</f>
+        <v>33445</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f>VLOOKUP(A47,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>25006634</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>VLOOKUP(A48,StudentList,6,FALSE)</f>
+        <v>Konate, Taoule Jayden</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(A48,Address,2,FALSE)</f>
+        <v>586 Konate Drive</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>VLOOKUP(A48,Address,7,FALSE)</f>
+        <v>Dartville, DC 20072</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>VLOOKUP(A48,Address,6,FALSE)</f>
+        <v>(991) 248-4912</v>
+      </c>
+      <c r="F48" s="2">
+        <f>VLOOKUP(A48,Demo,2,FALSE)</f>
+        <v>35679</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f>VLOOKUP(A48,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>25016896</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>VLOOKUP(A49,StudentList,6,FALSE)</f>
+        <v>Burless, Thomas Dylan</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(A49,Address,2,FALSE)</f>
+        <v>1203 Burless Court</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>VLOOKUP(A49,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>VLOOKUP(A49,Address,6,FALSE)</f>
+        <v>(991) 676-1588</v>
+      </c>
+      <c r="F49" s="2">
+        <f>VLOOKUP(A49,Demo,2,FALSE)</f>
+        <v>34245</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>VLOOKUP(A49,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>25016196</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>VLOOKUP(A50,StudentList,6,FALSE)</f>
+        <v>Creegan, Thomas Grayson</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(A50,Address,2,FALSE)</f>
+        <v>1695 Creegan Avenue</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>VLOOKUP(A50,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>VLOOKUP(A50,Address,6,FALSE)</f>
+        <v>(991) 639-7991</v>
+      </c>
+      <c r="F50" s="2">
+        <f>VLOOKUP(A50,Demo,2,FALSE)</f>
+        <v>35281</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f>VLOOKUP(A50,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>25017018</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>VLOOKUP(A51,StudentList,6,FALSE)</f>
+        <v>Seymour, Will Levi</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(A51,Address,2,FALSE)</f>
+        <v>2681 Seymour Drive</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>VLOOKUP(A51,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>VLOOKUP(A51,Address,6,FALSE)</f>
+        <v>(991) 264-4279</v>
+      </c>
+      <c r="F51" s="2">
+        <f>VLOOKUP(A51,Demo,2,FALSE)</f>
+        <v>35239</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>VLOOKUP(A51,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>25015901</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>VLOOKUP(A52,StudentList,6,FALSE)</f>
+        <v>Finneran, William Isaac</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(A52,Address,2,FALSE)</f>
+        <v>406 Finneran Court</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>VLOOKUP(A52,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>VLOOKUP(A52,Address,6,FALSE)</f>
+        <v>(991) 799-1958</v>
+      </c>
+      <c r="F52" s="2">
+        <f>VLOOKUP(A52,Demo,2,FALSE)</f>
+        <v>33807</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>VLOOKUP(A52,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>25018035</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>VLOOKUP(A53,StudentList,6,FALSE)</f>
+        <v>Jones, William Gabriel</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(A53,Address,2,FALSE)</f>
+        <v>4380 Jones Street</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>VLOOKUP(A53,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>VLOOKUP(A53,Address,6,FALSE)</f>
+        <v>(991) 454-2277</v>
+      </c>
+      <c r="F53" s="2">
+        <f>VLOOKUP(A53,Demo,2,FALSE)</f>
+        <v>33944</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>VLOOKUP(A53,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>25009952</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,StudentList,6,FALSE)</f>
+        <v>Shang, Xiaobing Julian</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Address,2,FALSE)</f>
+        <v>3834 Shang Court</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>VLOOKUP(A54,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>VLOOKUP(A54,Address,6,FALSE)</f>
+        <v>(991) 520-6687</v>
+      </c>
+      <c r="F54" s="2">
+        <f>VLOOKUP(A54,Demo,2,FALSE)</f>
+        <v>34708</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f>VLOOKUP(A54,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>25007353</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>VLOOKUP(A55,StudentList,6,FALSE)</f>
+        <v>Spahr, Zachary Mateo</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>VLOOKUP(A55,Address,2,FALSE)</f>
+        <v>1420 Spahr Place</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>VLOOKUP(A55,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>VLOOKUP(A55,Address,6,FALSE)</f>
+        <v>(991) 656-6935</v>
+      </c>
+      <c r="F55" s="2">
+        <f>VLOOKUP(A55,Demo,2,FALSE)</f>
+        <v>34054</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f>VLOOKUP(A55,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>25010122</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>VLOOKUP(A56,StudentList,6,FALSE)</f>
+        <v>Morrow, Zachary Anthony</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>VLOOKUP(A56,Address,2,FALSE)</f>
+        <v>1192 Morrow Court</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>VLOOKUP(A56,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>VLOOKUP(A56,Address,6,FALSE)</f>
+        <v>(991) 724-4433</v>
+      </c>
+      <c r="F56" s="2">
+        <f>VLOOKUP(A56,Demo,2,FALSE)</f>
+        <v>33710</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f>VLOOKUP(A56,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H56">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Fierce"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G56">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="82.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>25012794</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>VLOOKUP(A2,StudentList,6,FALSE)</f>
+        <v>Balcom, Brittany Emma</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(A2,Address,2,FALSE)</f>
+        <v>3322 Balcom Avenue</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(A2,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>VLOOKUP(A2,Address,6,FALSE)</f>
+        <v>(991) 381-7853</v>
+      </c>
+      <c r="F2" s="2">
+        <f>VLOOKUP(A2,Demo,2,FALSE)</f>
+        <v>35277</v>
+      </c>
+      <c r="G2" s="1">
+        <f ca="1">DATEDIF(F2,TODAY(),"y")</f>
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>VLOOKUP(A2,Diag,2,FALSE)</f>
+        <v>The GOAT</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>25018253</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,StudentList,6,FALSE)</f>
+        <v>Kent, Chandra Olivia</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(A3,Address,2,FALSE)</f>
+        <v>323 Kent Drive</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(A3,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>VLOOKUP(A3,Address,6,FALSE)</f>
+        <v>(991) 586-7500</v>
+      </c>
+      <c r="F3" s="2">
+        <f>VLOOKUP(A3,Demo,2,FALSE)</f>
+        <v>35784</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G56" ca="1" si="0">DATEDIF(F3,TODAY(),"y")</f>
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>VLOOKUP(A3,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>25011190</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,StudentList,6,FALSE)</f>
+        <v>Mack, Demetria Ava</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(A4,Address,2,FALSE)</f>
+        <v>2096 Mack Street</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(A4,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>VLOOKUP(A4,Address,6,FALSE)</f>
+        <v>(991) 415-9544</v>
+      </c>
+      <c r="F4" s="2">
+        <f>VLOOKUP(A4,Demo,2,FALSE)</f>
+        <v>33698</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(A4,Diag,2,FALSE)</f>
+        <v>Amazing</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>25012819</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,StudentList,6,FALSE)</f>
+        <v>Luongo, Desiree Isabella</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(A5,Address,2,FALSE)</f>
+        <v>656 Luongo Place</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(A5,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>VLOOKUP(A5,Address,6,FALSE)</f>
+        <v>(991) 700-4183</v>
+      </c>
+      <c r="F5" s="2">
+        <f>VLOOKUP(A5,Demo,2,FALSE)</f>
+        <v>34690</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>VLOOKUP(A5,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>25016539</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,StudentList,6,FALSE)</f>
+        <v>Light, Ericka Sophia</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(A6,Address,2,FALSE)</f>
+        <v>2956 Light Avenue</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(A6,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>VLOOKUP(A6,Address,6,FALSE)</f>
+        <v>(991) 213-2443</v>
+      </c>
+      <c r="F6" s="2">
+        <f>VLOOKUP(A6,Demo,2,FALSE)</f>
+        <v>35200</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>VLOOKUP(A6,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>25014751</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,StudentList,6,FALSE)</f>
+        <v>Xu, Fangyi Charlotte</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(A7,Address,2,FALSE)</f>
+        <v>3293 Xu Court</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(A7,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>VLOOKUP(A7,Address,6,FALSE)</f>
+        <v>(991) 982-7384</v>
+      </c>
+      <c r="F7" s="2">
+        <f>VLOOKUP(A7,Demo,2,FALSE)</f>
+        <v>35507</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>VLOOKUP(A7,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>25018014</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,StudentList,6,FALSE)</f>
+        <v>Alomoge, Fatima Mia</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Address,2,FALSE)</f>
+        <v>2605 Alomoge Street</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(A8,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>VLOOKUP(A8,Address,6,FALSE)</f>
+        <v>(991) 893-8997</v>
+      </c>
+      <c r="F8" s="2">
+        <f>VLOOKUP(A8,Demo,2,FALSE)</f>
+        <v>33742</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>VLOOKUP(A8,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>25011994</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,StudentList,6,FALSE)</f>
+        <v>Sundaresan, Gayatri Amelia</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(A9,Address,2,FALSE)</f>
+        <v>1564 Sundaresan Avenue</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(A9,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>VLOOKUP(A9,Address,6,FALSE)</f>
+        <v>(991) 597-8026</v>
+      </c>
+      <c r="F9" s="2">
+        <f>VLOOKUP(A9,Demo,2,FALSE)</f>
+        <v>35340</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>VLOOKUP(A9,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>25013750</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,StudentList,6,FALSE)</f>
+        <v>Javier, Janice Harper</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(A10,Address,2,FALSE)</f>
+        <v>3208 Javier Drive</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(A10,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>VLOOKUP(A10,Address,6,FALSE)</f>
+        <v>(991) 264-3081</v>
+      </c>
+      <c r="F10" s="2">
+        <f>VLOOKUP(A10,Demo,2,FALSE)</f>
+        <v>34559</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>VLOOKUP(A10,Diag,2,FALSE)</f>
+        <v>Fierce</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>25011962</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,StudentList,6,FALSE)</f>
+        <v>Gwon, Jean Evelyn</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(A11,Address,2,FALSE)</f>
+        <v>4546 Gwon Blvd</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(A11,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>VLOOKUP(A11,Address,6,FALSE)</f>
+        <v>(991) 748-1984</v>
+      </c>
+      <c r="F11" s="2">
+        <f>VLOOKUP(A11,Demo,2,FALSE)</f>
+        <v>35826</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>VLOOKUP(A11,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>25007190</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,StudentList,6,FALSE)</f>
+        <v>Gorska, Katarzyna Abigail</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(A12,Address,2,FALSE)</f>
+        <v>3804 Gorska Avenue</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(A12,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>VLOOKUP(A12,Address,6,FALSE)</f>
+        <v>(991) 550-6111</v>
+      </c>
+      <c r="F12" s="2">
+        <f>VLOOKUP(A12,Demo,2,FALSE)</f>
+        <v>35258</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>VLOOKUP(A12,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>25016020</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,StudentList,6,FALSE)</f>
+        <v>Carr, Keisha Emily</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(A13,Address,2,FALSE)</f>
+        <v>4105 Carr Blvd</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(A13,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>VLOOKUP(A13,Address,6,FALSE)</f>
+        <v>(991) 450-9844</v>
+      </c>
+      <c r="F13" s="2">
+        <f>VLOOKUP(A13,Demo,2,FALSE)</f>
+        <v>34883</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>VLOOKUP(A13,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>25016460</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,StudentList,6,FALSE)</f>
+        <v>Wilson, Michelle Elizabeth</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(A14,Address,2,FALSE)</f>
+        <v>2792 Wilson Avenue</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(A14,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>VLOOKUP(A14,Address,6,FALSE)</f>
+        <v>(991) 546-6800</v>
+      </c>
+      <c r="F14" s="2">
+        <f>VLOOKUP(A14,Demo,2,FALSE)</f>
+        <v>33964</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>VLOOKUP(A14,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>25015674</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,StudentList,6,FALSE)</f>
+        <v>Ren, Qing Mila</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(A15,Address,2,FALSE)</f>
+        <v>771 Ren Place</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(A15,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>VLOOKUP(A15,Address,6,FALSE)</f>
+        <v>(991) 855-8115</v>
+      </c>
+      <c r="F15" s="2">
+        <f>VLOOKUP(A15,Demo,2,FALSE)</f>
+        <v>35870</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>VLOOKUP(A15,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>25008738</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,StudentList,6,FALSE)</f>
+        <v>Tiwari, Rina Ella</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>VLOOKUP(A16,Address,2,FALSE)</f>
+        <v>4455 Tiwari Avenue</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(A16,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>VLOOKUP(A16,Address,6,FALSE)</f>
+        <v>(991) 584-4352</v>
+      </c>
+      <c r="F16" s="2">
+        <f>VLOOKUP(A16,Demo,2,FALSE)</f>
+        <v>35128</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>VLOOKUP(A16,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>25017285</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,StudentList,6,FALSE)</f>
+        <v>Jain, Sumita Avery</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(A17,Address,2,FALSE)</f>
+        <v>1326 Jain Blvd</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(A17,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>VLOOKUP(A17,Address,6,FALSE)</f>
+        <v>(991) 780-8539</v>
+      </c>
+      <c r="F17" s="2">
+        <f>VLOOKUP(A17,Demo,2,FALSE)</f>
+        <v>33911</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>VLOOKUP(A17,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>25011891</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,StudentList,6,FALSE)</f>
+        <v>Rangat, Tara Sofia</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(A18,Address,2,FALSE)</f>
+        <v>962 Rangat Drive</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(A18,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>VLOOKUP(A18,Address,6,FALSE)</f>
+        <v>(991) 636-5688</v>
+      </c>
+      <c r="F18" s="2">
+        <f>VLOOKUP(A18,Demo,2,FALSE)</f>
+        <v>33800</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>VLOOKUP(A18,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>25008833</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,StudentList,6,FALSE)</f>
+        <v>Isaacson, Aaron Liam</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(A19,Address,2,FALSE)</f>
+        <v>3179 Isaacson Place</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(A19,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>VLOOKUP(A19,Address,6,FALSE)</f>
+        <v>(991) 473-7167</v>
+      </c>
+      <c r="F19" s="2">
+        <f>VLOOKUP(A19,Demo,2,FALSE)</f>
+        <v>35522</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>VLOOKUP(A19,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>25015731</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,StudentList,6,FALSE)</f>
+        <v>Black, Alex Noah</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(A20,Address,2,FALSE)</f>
+        <v>1735 Black Avenue</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(A20,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>VLOOKUP(A20,Address,6,FALSE)</f>
+        <v>(991) 653-9879</v>
+      </c>
+      <c r="F20" s="2">
+        <f>VLOOKUP(A20,Demo,2,FALSE)</f>
+        <v>35318</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>VLOOKUP(A20,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>25017242</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,StudentList,6,FALSE)</f>
+        <v>Ebanks, Andre William</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>VLOOKUP(A21,Address,2,FALSE)</f>
+        <v>1077 Ebanks Avenue</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>VLOOKUP(A21,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>VLOOKUP(A21,Address,6,FALSE)</f>
+        <v>(991) 262-7832</v>
+      </c>
+      <c r="F21" s="2">
+        <f>VLOOKUP(A21,Demo,2,FALSE)</f>
+        <v>35800</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>VLOOKUP(A21,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>25010582</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,StudentList,6,FALSE)</f>
+        <v>Schneider, Brett James</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>VLOOKUP(A22,Address,2,FALSE)</f>
+        <v>105 Schneider Street</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>VLOOKUP(A22,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>VLOOKUP(A22,Address,6,FALSE)</f>
+        <v>(991) 941-1852</v>
+      </c>
+      <c r="F22" s="2">
+        <f>VLOOKUP(A22,Demo,2,FALSE)</f>
+        <v>33406</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>VLOOKUP(A22,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>25010276</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,StudentList,6,FALSE)</f>
+        <v>Ventura, David Oliver</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>VLOOKUP(A23,Address,2,FALSE)</f>
+        <v>4698 Ventura Place</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>VLOOKUP(A23,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>VLOOKUP(A23,Address,6,FALSE)</f>
+        <v>(991) 631-1491</v>
+      </c>
+      <c r="F23" s="2">
+        <f>VLOOKUP(A23,Demo,2,FALSE)</f>
+        <v>35390</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>VLOOKUP(A23,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>25019408</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,StudentList,6,FALSE)</f>
+        <v>Thompson, Edwin Benjamin</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(A24,Address,2,FALSE)</f>
+        <v>957 Thompson Blvd</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>VLOOKUP(A24,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>VLOOKUP(A24,Address,6,FALSE)</f>
+        <v>(991) 952-5337</v>
+      </c>
+      <c r="F24" s="2">
+        <f>VLOOKUP(A24,Demo,2,FALSE)</f>
+        <v>33842</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>VLOOKUP(A24,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>25018061</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,StudentList,6,FALSE)</f>
+        <v>Selimaj, Elvis Elijah</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(A25,Address,2,FALSE)</f>
+        <v>3147 Selimaj Street</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>VLOOKUP(A25,Address,7,FALSE)</f>
+        <v>Dartville, DC 20072</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>VLOOKUP(A25,Address,6,FALSE)</f>
+        <v>(991) 889-8098</v>
+      </c>
+      <c r="F25" s="2">
+        <f>VLOOKUP(A25,Demo,2,FALSE)</f>
+        <v>35014</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>VLOOKUP(A25,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25016675</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,StudentList,6,FALSE)</f>
+        <v>Tate, Hannah Lucas</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>VLOOKUP(A26,Address,2,FALSE)</f>
+        <v>2916 Tate Street</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>VLOOKUP(A26,Address,7,FALSE)</f>
+        <v>Dartville, DC 20072</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>VLOOKUP(A26,Address,6,FALSE)</f>
+        <v>(991) 801-1140</v>
+      </c>
+      <c r="F26" s="2">
+        <f>VLOOKUP(A26,Demo,2,FALSE)</f>
+        <v>34635</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>VLOOKUP(A26,Diag,2,FALSE)</f>
+        <v>Amazing</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25017367</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,StudentList,6,FALSE)</f>
+        <v>Lodhi, Hussain Mason</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>VLOOKUP(A27,Address,2,FALSE)</f>
+        <v>943 Lodhi Court</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>VLOOKUP(A27,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>VLOOKUP(A27,Address,6,FALSE)</f>
+        <v>(991) 257-5982</v>
+      </c>
+      <c r="F27" s="2">
+        <f>VLOOKUP(A27,Demo,2,FALSE)</f>
+        <v>34019</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>VLOOKUP(A27,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25014193</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,StudentList,6,FALSE)</f>
+        <v>Khalil, Hythem Logan</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>VLOOKUP(A28,Address,2,FALSE)</f>
+        <v>4703 Khalil Blvd</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>VLOOKUP(A28,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>VLOOKUP(A28,Address,6,FALSE)</f>
+        <v>(991) 572-6278</v>
+      </c>
+      <c r="F28" s="2">
+        <f>VLOOKUP(A28,Demo,2,FALSE)</f>
+        <v>35926</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>VLOOKUP(A28,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>25010928</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,StudentList,6,FALSE)</f>
+        <v>Woltman, Jack Alexander</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(A29,Address,2,FALSE)</f>
+        <v>2325 Woltman Drive</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>VLOOKUP(A29,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>VLOOKUP(A29,Address,6,FALSE)</f>
+        <v>(991) 659-7287</v>
+      </c>
+      <c r="F29" s="2">
+        <f>VLOOKUP(A29,Demo,2,FALSE)</f>
+        <v>34886</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>VLOOKUP(A29,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25007608</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,StudentList,6,FALSE)</f>
+        <v>Torczon, Jethro Ethan</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(A30,Address,2,FALSE)</f>
+        <v>1092 Torczon Court</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>VLOOKUP(A30,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>VLOOKUP(A30,Address,6,FALSE)</f>
+        <v>(991) 640-2521</v>
+      </c>
+      <c r="F30" s="2">
+        <f>VLOOKUP(A30,Demo,2,FALSE)</f>
+        <v>35665</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>VLOOKUP(A30,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>25018702</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,StudentList,6,FALSE)</f>
+        <v>Najmi, Johar Jacob</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(A31,Address,2,FALSE)</f>
+        <v>4852 Najmi Court</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>VLOOKUP(A31,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>VLOOKUP(A31,Address,6,FALSE)</f>
+        <v>(991) 653-1409</v>
+      </c>
+      <c r="F31" s="2">
+        <f>VLOOKUP(A31,Demo,2,FALSE)</f>
+        <v>35677</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>VLOOKUP(A31,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>25010016</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,StudentList,6,FALSE)</f>
+        <v>Culhane, John Michael</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(A32,Address,2,FALSE)</f>
+        <v>1747 Culhane Street</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>VLOOKUP(A32,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>VLOOKUP(A32,Address,6,FALSE)</f>
+        <v>(991) 672-9478</v>
+      </c>
+      <c r="F32" s="2">
+        <f>VLOOKUP(A32,Demo,2,FALSE)</f>
+        <v>35303</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>VLOOKUP(A32,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>25018576</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,StudentList,6,FALSE)</f>
+        <v>van Zalk, John Daniel</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(A33,Address,2,FALSE)</f>
+        <v>2790 van Zalk Court</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>VLOOKUP(A33,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>VLOOKUP(A33,Address,6,FALSE)</f>
+        <v>(991) 448-8113</v>
+      </c>
+      <c r="F33" s="2">
+        <f>VLOOKUP(A33,Demo,2,FALSE)</f>
+        <v>34905</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>VLOOKUP(A33,Diag,2,FALSE)</f>
+        <v>Fierce</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>25014954</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,StudentList,6,FALSE)</f>
+        <v>Noriega, Jorge Henry</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(A34,Address,2,FALSE)</f>
+        <v>3766 Noriega Blvd</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>VLOOKUP(A34,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>VLOOKUP(A34,Address,6,FALSE)</f>
+        <v>(991) 489-9434</v>
+      </c>
+      <c r="F34" s="2">
+        <f>VLOOKUP(A34,Demo,2,FALSE)</f>
+        <v>35347</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>VLOOKUP(A34,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>25012437</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,StudentList,6,FALSE)</f>
+        <v>Silk, Julian Jackson</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(A35,Address,2,FALSE)</f>
+        <v>1986 Silk Drive</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>VLOOKUP(A35,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>VLOOKUP(A35,Address,6,FALSE)</f>
+        <v>(991) 823-7804</v>
+      </c>
+      <c r="F35" s="2">
+        <f>VLOOKUP(A35,Demo,2,FALSE)</f>
+        <v>35019</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f>VLOOKUP(A35,Diag,2,FALSE)</f>
+        <v>Amazing</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>25015625</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,StudentList,6,FALSE)</f>
+        <v>Tosani, Julian Sebastian</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(A36,Address,2,FALSE)</f>
+        <v>2527 Tosani Street</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>VLOOKUP(A36,Address,7,FALSE)</f>
+        <v>Dartville, DC 20078</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>VLOOKUP(A36,Address,6,FALSE)</f>
+        <v>(991) 298-8830</v>
+      </c>
+      <c r="F36" s="2">
+        <f>VLOOKUP(A36,Demo,2,FALSE)</f>
+        <v>35925</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>VLOOKUP(A36,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>25011195</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,StudentList,6,FALSE)</f>
+        <v>Thomas, Justin Aiden</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(A37,Address,2,FALSE)</f>
+        <v>2952 Thomas Court</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>VLOOKUP(A37,Address,7,FALSE)</f>
+        <v>Dartville, DC 20076</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>VLOOKUP(A37,Address,6,FALSE)</f>
+        <v>(991) 841-6389</v>
+      </c>
+      <c r="F37" s="2">
+        <f>VLOOKUP(A37,Demo,2,FALSE)</f>
+        <v>33638</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>VLOOKUP(A37,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>25012944</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,StudentList,6,FALSE)</f>
+        <v>Jean, Manuel Matthew</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>VLOOKUP(A38,Address,2,FALSE)</f>
+        <v>1510 Jean Drive</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>VLOOKUP(A38,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>VLOOKUP(A38,Address,6,FALSE)</f>
+        <v>(991) 561-8406</v>
+      </c>
+      <c r="F38" s="2">
+        <f>VLOOKUP(A38,Demo,2,FALSE)</f>
+        <v>34448</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>VLOOKUP(A38,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>25015456</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,StudentList,6,FALSE)</f>
+        <v>Iglesias, Mario Samuel</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>VLOOKUP(A39,Address,2,FALSE)</f>
+        <v>2083 Iglesias Avenue</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>VLOOKUP(A39,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>VLOOKUP(A39,Address,6,FALSE)</f>
+        <v>(991) 494-8590</v>
+      </c>
+      <c r="F39" s="2">
+        <f>VLOOKUP(A39,Demo,2,FALSE)</f>
+        <v>34229</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f>VLOOKUP(A39,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>25017922</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>VLOOKUP(A40,StudentList,6,FALSE)</f>
+        <v>Chinchilla, Marvin David</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(A40,Address,2,FALSE)</f>
+        <v>335 Chinchilla Drive</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>VLOOKUP(A40,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>VLOOKUP(A40,Address,6,FALSE)</f>
+        <v>(991) 504-3256</v>
+      </c>
+      <c r="F40" s="2">
+        <f>VLOOKUP(A40,Demo,2,FALSE)</f>
+        <v>34900</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f>VLOOKUP(A40,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>25013450</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>VLOOKUP(A41,StudentList,6,FALSE)</f>
+        <v>Swehli, Nedal Joseph</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(A41,Address,2,FALSE)</f>
+        <v>1639 Swehli Drive</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>VLOOKUP(A41,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>VLOOKUP(A41,Address,6,FALSE)</f>
+        <v>(991) 319-3922</v>
+      </c>
+      <c r="F41" s="2">
+        <f>VLOOKUP(A41,Demo,2,FALSE)</f>
+        <v>35814</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f>VLOOKUP(A41,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>25007419</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>VLOOKUP(A42,StudentList,6,FALSE)</f>
+        <v>Grove, Nicholas Carter</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(A42,Address,2,FALSE)</f>
+        <v>2033 Grove Court</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>VLOOKUP(A42,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>VLOOKUP(A42,Address,6,FALSE)</f>
+        <v>(991) 284-1405</v>
+      </c>
+      <c r="F42" s="2">
+        <f>VLOOKUP(A42,Demo,2,FALSE)</f>
+        <v>35828</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>VLOOKUP(A42,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>25016999</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>VLOOKUP(A43,StudentList,6,FALSE)</f>
+        <v>Mourtoupalas, Nikolas Owen</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(A43,Address,2,FALSE)</f>
+        <v>885 Mourtoupalas Court</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>VLOOKUP(A43,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>VLOOKUP(A43,Address,6,FALSE)</f>
+        <v>(991) 276-5724</v>
+      </c>
+      <c r="F43" s="2">
+        <f>VLOOKUP(A43,Demo,2,FALSE)</f>
+        <v>35178</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>VLOOKUP(A43,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>25014409</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>VLOOKUP(A44,StudentList,6,FALSE)</f>
+        <v>Oyoo, Philip Wyatt</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(A44,Address,2,FALSE)</f>
+        <v>4255 Oyoo Drive</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>VLOOKUP(A44,Address,7,FALSE)</f>
+        <v>Dartville, DC 20079</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>VLOOKUP(A44,Address,6,FALSE)</f>
+        <v>(991) 717-2093</v>
+      </c>
+      <c r="F44" s="2">
+        <f>VLOOKUP(A44,Demo,2,FALSE)</f>
+        <v>33389</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f>VLOOKUP(A44,Diag,2,FALSE)</f>
+        <v>Super</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>25016268</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>VLOOKUP(A45,StudentList,6,FALSE)</f>
+        <v>Wondimu, Robel John</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(A45,Address,2,FALSE)</f>
+        <v>4232 Wondimu Blvd</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>VLOOKUP(A45,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>VLOOKUP(A45,Address,6,FALSE)</f>
+        <v>(991) 710-9973</v>
+      </c>
+      <c r="F45" s="2">
+        <f>VLOOKUP(A45,Demo,2,FALSE)</f>
+        <v>35463</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>VLOOKUP(A45,Diag,2,FALSE)</f>
+        <v>Fierce</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>25010655</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,StudentList,6,FALSE)</f>
+        <v>Powell, Stephen Jack</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(A46,Address,2,FALSE)</f>
+        <v>2699 Powell Street</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>VLOOKUP(A46,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>VLOOKUP(A46,Address,6,FALSE)</f>
+        <v>(991) 371-6965</v>
+      </c>
+      <c r="F46" s="2">
+        <f>VLOOKUP(A46,Demo,2,FALSE)</f>
+        <v>35912</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f>VLOOKUP(A46,Diag,2,FALSE)</f>
+        <v>The GOAT</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>25016446</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>VLOOKUP(A47,StudentList,6,FALSE)</f>
+        <v>Lanciotti, Steven Luke</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(A47,Address,2,FALSE)</f>
+        <v>4220 Lanciotti Street</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>VLOOKUP(A47,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>VLOOKUP(A47,Address,6,FALSE)</f>
+        <v>(991) 529-3681</v>
+      </c>
+      <c r="F47" s="2">
+        <f>VLOOKUP(A47,Demo,2,FALSE)</f>
+        <v>33445</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f>VLOOKUP(A47,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>25006634</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>VLOOKUP(A48,StudentList,6,FALSE)</f>
+        <v>Konate, Taoule Jayden</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(A48,Address,2,FALSE)</f>
+        <v>586 Konate Drive</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>VLOOKUP(A48,Address,7,FALSE)</f>
+        <v>Dartville, DC 20072</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>VLOOKUP(A48,Address,6,FALSE)</f>
+        <v>(991) 248-4912</v>
+      </c>
+      <c r="F48" s="2">
+        <f>VLOOKUP(A48,Demo,2,FALSE)</f>
+        <v>35679</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f>VLOOKUP(A48,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>25016896</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>VLOOKUP(A49,StudentList,6,FALSE)</f>
+        <v>Burless, Thomas Dylan</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(A49,Address,2,FALSE)</f>
+        <v>1203 Burless Court</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>VLOOKUP(A49,Address,7,FALSE)</f>
+        <v>Dartville, DC 20074</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>VLOOKUP(A49,Address,6,FALSE)</f>
+        <v>(991) 676-1588</v>
+      </c>
+      <c r="F49" s="2">
+        <f>VLOOKUP(A49,Demo,2,FALSE)</f>
+        <v>34245</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>VLOOKUP(A49,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>25016196</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>VLOOKUP(A50,StudentList,6,FALSE)</f>
+        <v>Creegan, Thomas Grayson</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(A50,Address,2,FALSE)</f>
+        <v>1695 Creegan Avenue</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>VLOOKUP(A50,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>VLOOKUP(A50,Address,6,FALSE)</f>
+        <v>(991) 639-7991</v>
+      </c>
+      <c r="F50" s="2">
+        <f>VLOOKUP(A50,Demo,2,FALSE)</f>
+        <v>35281</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f>VLOOKUP(A50,Diag,2,FALSE)</f>
+        <v>Phenomenal</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>25017018</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>VLOOKUP(A51,StudentList,6,FALSE)</f>
+        <v>Seymour, Will Levi</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(A51,Address,2,FALSE)</f>
+        <v>2681 Seymour Drive</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>VLOOKUP(A51,Address,7,FALSE)</f>
+        <v>Dartville, DC 20077</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>VLOOKUP(A51,Address,6,FALSE)</f>
+        <v>(991) 264-4279</v>
+      </c>
+      <c r="F51" s="2">
+        <f>VLOOKUP(A51,Demo,2,FALSE)</f>
+        <v>35239</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>VLOOKUP(A51,Diag,2,FALSE)</f>
+        <v>Great</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>25015901</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>VLOOKUP(A52,StudentList,6,FALSE)</f>
+        <v>Finneran, William Isaac</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(A52,Address,2,FALSE)</f>
+        <v>406 Finneran Court</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>VLOOKUP(A52,Address,7,FALSE)</f>
+        <v>Dartville, DC 20071</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>VLOOKUP(A52,Address,6,FALSE)</f>
+        <v>(991) 799-1958</v>
+      </c>
+      <c r="F52" s="2">
+        <f>VLOOKUP(A52,Demo,2,FALSE)</f>
+        <v>33807</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>VLOOKUP(A52,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>25018035</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>VLOOKUP(A53,StudentList,6,FALSE)</f>
+        <v>Jones, William Gabriel</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(A53,Address,2,FALSE)</f>
+        <v>4380 Jones Street</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>VLOOKUP(A53,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>VLOOKUP(A53,Address,6,FALSE)</f>
+        <v>(991) 454-2277</v>
+      </c>
+      <c r="F53" s="2">
+        <f>VLOOKUP(A53,Demo,2,FALSE)</f>
+        <v>33944</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>VLOOKUP(A53,Diag,2,FALSE)</f>
+        <v>Awesome</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>25009952</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>VLOOKUP(A54,StudentList,6,FALSE)</f>
+        <v>Shang, Xiaobing Julian</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(A54,Address,2,FALSE)</f>
+        <v>3834 Shang Court</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>VLOOKUP(A54,Address,7,FALSE)</f>
+        <v>Dartville, DC 20075</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>VLOOKUP(A54,Address,6,FALSE)</f>
+        <v>(991) 520-6687</v>
+      </c>
+      <c r="F54" s="2">
+        <f>VLOOKUP(A54,Demo,2,FALSE)</f>
+        <v>34708</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f>VLOOKUP(A54,Diag,2,FALSE)</f>
+        <v>Wonderful</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>25007353</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>VLOOKUP(A55,StudentList,6,FALSE)</f>
+        <v>Spahr, Zachary Mateo</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>VLOOKUP(A55,Address,2,FALSE)</f>
+        <v>1420 Spahr Place</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>VLOOKUP(A55,Address,7,FALSE)</f>
+        <v>Dartville, DC 20070</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>VLOOKUP(A55,Address,6,FALSE)</f>
+        <v>(991) 656-6935</v>
+      </c>
+      <c r="F55" s="2">
+        <f>VLOOKUP(A55,Demo,2,FALSE)</f>
+        <v>34054</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f>VLOOKUP(A55,Diag,2,FALSE)</f>
+        <v>Magnificent</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>25010122</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>VLOOKUP(A56,StudentList,6,FALSE)</f>
+        <v>Morrow, Zachary Anthony</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>VLOOKUP(A56,Address,2,FALSE)</f>
+        <v>1192 Morrow Court</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>VLOOKUP(A56,Address,7,FALSE)</f>
+        <v>Dartville, DC 20073</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>VLOOKUP(A56,Address,6,FALSE)</f>
+        <v>(991) 724-4433</v>
+      </c>
+      <c r="F56" s="2">
+        <f>VLOOKUP(A56,Demo,2,FALSE)</f>
+        <v>33710</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f>VLOOKUP(A56,Diag,2,FALSE)</f>
+        <v>Fabulous</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H56">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Fierce"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G56">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A3:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>6</v>
+      </c>
+      <c r="H13" s="10">
+        <v>11</v>
+      </c>
+      <c r="I13" s="10">
+        <v>6</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>9</v>
+      </c>
+      <c r="L13" s="10">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
